--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H2">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I2">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J2">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>191.5977485577843</v>
+        <v>163.0091887222479</v>
       </c>
       <c r="R2">
-        <v>1724.379737020059</v>
+        <v>1467.082698500231</v>
       </c>
       <c r="S2">
-        <v>0.240766213526637</v>
+        <v>0.2267887563839661</v>
       </c>
       <c r="T2">
-        <v>0.2407662135266369</v>
+        <v>0.226788756383966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H3">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I3">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J3">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>219.7389774611856</v>
+        <v>271.8781136951655</v>
       </c>
       <c r="R3">
-        <v>1977.65079715067</v>
+        <v>2446.90302325649</v>
       </c>
       <c r="S3">
-        <v>0.2761291401688299</v>
+        <v>0.3782541326428291</v>
       </c>
       <c r="T3">
-        <v>0.2761291401688299</v>
+        <v>0.3782541326428291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H4">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I4">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J4">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>24.41118620953689</v>
+        <v>29.43792194532188</v>
       </c>
       <c r="R4">
-        <v>219.700675885832</v>
+        <v>264.941297507897</v>
       </c>
       <c r="S4">
-        <v>0.03067566772368038</v>
+        <v>0.04095591028235473</v>
       </c>
       <c r="T4">
-        <v>0.03067566772368038</v>
+        <v>0.04095591028235472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H5">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I5">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J5">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>14.75533539909022</v>
+        <v>5.982225722990221</v>
       </c>
       <c r="R5">
-        <v>132.798018591812</v>
+        <v>53.84003150691198</v>
       </c>
       <c r="S5">
-        <v>0.01854189968356058</v>
+        <v>0.008322853102697265</v>
       </c>
       <c r="T5">
-        <v>0.01854189968356058</v>
+        <v>0.008322853102697262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>64.56157004796333</v>
+        <v>44.39444377049889</v>
       </c>
       <c r="R6">
-        <v>581.05413043167</v>
+        <v>399.54999393449</v>
       </c>
       <c r="S6">
-        <v>0.08112957942767708</v>
+        <v>0.06176437519865546</v>
       </c>
       <c r="T6">
-        <v>0.08112957942767708</v>
+        <v>0.06176437519865546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>74.04415496745557</v>
+        <v>74.04415496745555</v>
       </c>
       <c r="R7">
-        <v>666.3973947071001</v>
+        <v>666.3973947071</v>
       </c>
       <c r="S7">
-        <v>0.09304561749543326</v>
+        <v>0.1030149401650206</v>
       </c>
       <c r="T7">
-        <v>0.09304561749543326</v>
+        <v>0.1030149401650206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>8.225694301128888</v>
+        <v>8.01721780695889</v>
       </c>
       <c r="R8">
-        <v>74.03124871016</v>
+        <v>72.15496026263</v>
       </c>
       <c r="S8">
-        <v>0.01033659991006181</v>
+        <v>0.01115406358593478</v>
       </c>
       <c r="T8">
-        <v>0.01033659991006181</v>
+        <v>0.01115406358593477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>4.972018863062222</v>
+        <v>1.629218484942222</v>
       </c>
       <c r="R9">
-        <v>44.74816976756</v>
+        <v>14.66296636448</v>
       </c>
       <c r="S9">
-        <v>0.006247955230441925</v>
+        <v>0.002266672431008715</v>
       </c>
       <c r="T9">
-        <v>0.006247955230441925</v>
+        <v>0.002266672431008714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H10">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>12.991712867259</v>
+        <v>7.664966551396223</v>
       </c>
       <c r="R10">
-        <v>116.925415805331</v>
+        <v>68.984698962566</v>
       </c>
       <c r="S10">
-        <v>0.01632569034772279</v>
+        <v>0.01066398922380868</v>
       </c>
       <c r="T10">
-        <v>0.01632569034772279</v>
+        <v>0.01066398922380868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H11">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>14.89989168667</v>
+        <v>12.78416673234889</v>
       </c>
       <c r="R11">
-        <v>134.09902518003</v>
+        <v>115.05750059114</v>
       </c>
       <c r="S11">
-        <v>0.01872355249662354</v>
+        <v>0.0177861462740902</v>
       </c>
       <c r="T11">
-        <v>0.01872355249662354</v>
+        <v>0.0177861462740902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H12">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>1.655254951432</v>
+        <v>1.384220661560222</v>
       </c>
       <c r="R12">
-        <v>14.897294562888</v>
+        <v>12.457985954042</v>
       </c>
       <c r="S12">
-        <v>0.002080032098901761</v>
+        <v>0.001925815868767577</v>
       </c>
       <c r="T12">
-        <v>0.002080032098901761</v>
+        <v>0.001925815868767576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H13">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>1.000518441412</v>
+        <v>0.2812943272035555</v>
       </c>
       <c r="R13">
-        <v>9.004665972708001</v>
+        <v>2.531648944832</v>
       </c>
       <c r="S13">
-        <v>0.001257274881962868</v>
+        <v>0.0003913545680732046</v>
       </c>
       <c r="T13">
-        <v>0.001257274881962868</v>
+        <v>0.0003913545680732045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H14">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I14">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J14">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>69.29336966268734</v>
+        <v>34.058398543957</v>
       </c>
       <c r="R14">
-        <v>623.640326964186</v>
+        <v>306.525586895613</v>
       </c>
       <c r="S14">
-        <v>0.08707566953040242</v>
+        <v>0.04738421134881271</v>
       </c>
       <c r="T14">
-        <v>0.08707566953040241</v>
+        <v>0.0473842113488127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H15">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I15">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J15">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>79.47094529624223</v>
+        <v>56.80497660403</v>
       </c>
       <c r="R15">
-        <v>715.23850766618</v>
+        <v>511.24478943627</v>
       </c>
       <c r="S15">
-        <v>0.09986504918969914</v>
+        <v>0.07903069821664592</v>
       </c>
       <c r="T15">
-        <v>0.09986504918969913</v>
+        <v>0.07903069821664591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H16">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I16">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J16">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>8.828565902547554</v>
+        <v>6.150625530859</v>
       </c>
       <c r="R16">
-        <v>79.457093122928</v>
+        <v>55.355629777731</v>
       </c>
       <c r="S16">
-        <v>0.01109418246940246</v>
+        <v>0.008557141631468078</v>
       </c>
       <c r="T16">
-        <v>0.01109418246940246</v>
+        <v>0.008557141631468076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H17">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I17">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J17">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>5.336424451760888</v>
+        <v>1.249899036064</v>
       </c>
       <c r="R17">
-        <v>48.027820065848</v>
+        <v>11.249091324576</v>
       </c>
       <c r="S17">
-        <v>0.006705875818963154</v>
+        <v>0.001738939075866862</v>
       </c>
       <c r="T17">
-        <v>0.006705875818963153</v>
+        <v>0.001738939075866861</v>
       </c>
     </row>
   </sheetData>
